--- a/data/trans_dic/IP2004-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP2004-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 10,81</t>
+          <t>2,48; 12,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 14,38</t>
+          <t>3,39; 14,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,11</t>
+          <t>0,89; 7,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 13,35</t>
+          <t>1,42; 13,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,01; 13,95</t>
+          <t>3,58; 13,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 9,69</t>
+          <t>1,9; 10,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 12,01</t>
+          <t>1,33; 12,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,45</t>
+          <t>0,0; 4,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,12; 9,9</t>
+          <t>4,25; 10,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 9,49</t>
+          <t>3,3; 9,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,72</t>
+          <t>1,75; 7,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,69</t>
+          <t>0,82; 7,12</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,32</t>
+          <t>2,5; 5,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,42</t>
+          <t>1,2; 3,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,26</t>
+          <t>1,03; 3,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,2</t>
+          <t>1,03; 3,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,8</t>
+          <t>1,93; 4,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,78</t>
+          <t>1,92; 4,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,72</t>
+          <t>1,9; 4,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,91</t>
+          <t>0,63; 2,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 4,51</t>
+          <t>2,49; 4,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,64</t>
+          <t>1,81; 3,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,51</t>
+          <t>1,73; 3,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,58</t>
+          <t>1,05; 2,6</t>
         </is>
       </c>
     </row>
@@ -1149,37 +1149,37 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,81</t>
+          <t>0,0; 2,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,77</t>
+          <t>0,9; 5,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,49</t>
+          <t>0,46; 4,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,51</t>
+          <t>0,92; 5,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,44</t>
+          <t>0,33; 3,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,79</t>
+          <t>0,0; 2,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,37</t>
+          <t>0,68; 3,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,04</t>
+          <t>0,25; 2,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,49</t>
+          <t>0,65; 3,31</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,34</t>
+          <t>2,12; 4,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,61</t>
+          <t>1,55; 3,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,88</t>
+          <t>0,95; 2,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,39</t>
+          <t>1,44; 3,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 4,79</t>
+          <t>2,51; 4,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,45</t>
+          <t>2,12; 4,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,07</t>
+          <t>1,74; 3,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,22</t>
+          <t>0,62; 2,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,18</t>
+          <t>2,63; 4,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,66</t>
+          <t>2,12; 3,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,92</t>
+          <t>1,58; 3,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,48</t>
+          <t>1,17; 2,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2004-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP2004-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les sangran las encias al cepillarse</t>
+          <t>Menores a los que les sangran las encías</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,83%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>3,76; 13,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>2,17; 9,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,34; 11,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,37; 11,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,58; 13,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 7,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>1,42; 12,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>3,95; 10,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>2,94; 9,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 7,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,8; 7,2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>1,68%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 12,14</t>
+          <t>1,94; 5,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 14,66</t>
+          <t>1,94; 4,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 7,17</t>
+          <t>2,02; 4,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 13,48</t>
+          <t>0,68; 2,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 13,43</t>
+          <t>2,46; 5,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 10,16</t>
+          <t>1,28; 3,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 12,48</t>
+          <t>1,02; 3,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,92</t>
+          <t>1,07; 3,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,25; 10,66</t>
+          <t>2,51; 4,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 9,69</t>
+          <t>1,83; 3,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 7,19</t>
+          <t>1,7; 3,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,12</t>
+          <t>1,05; 2,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,63%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,32</t>
+          <t>0,46; 4,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,61</t>
+          <t>0,91; 5,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,16</t>
+          <t>0,34; 3,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,24</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,82</t>
+          <t>0; 0,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,79</t>
+          <t>0,0; 2,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,88</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,83</t>
+          <t>1,07; 5,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,61</t>
+          <t>0,24; 2,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,62</t>
+          <t>0,72; 3,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,55</t>
+          <t>0,25; 2,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,6</t>
+          <t>0,67; 3,32</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>2,37; 4,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,87</t>
+          <t>2,21; 4,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,47</t>
+          <t>1,87; 4,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,5</t>
+          <t>0,55; 2,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,23</t>
+          <t>2,22; 4,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,54</t>
+          <t>1,57; 3,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,56</t>
+          <t>1,0; 2,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,74</t>
+          <t>1,54; 3,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,45</t>
+          <t>2,56; 4,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,33</t>
+          <t>2,1; 3,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,36</t>
+          <t>1,57; 2,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,31</t>
+          <t>1,22; 2,5</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,17%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,44%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,43%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,82%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>3,29%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>2,79%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 4,38</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,55; 3,65</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 2,71</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,44; 3,46</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 4,8</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 4,49</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 3,9</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 2,24</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>2,63; 4,1</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 3,65</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>1,58; 3,0</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 2,47</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
